--- a/ig/ch-term/ch-vacd-vaccines-sct-sm-cm.xlsx
+++ b/ig/ch-term/ch-vacd-vaccines-sct-sm-cm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-term/ConceptMap/ch-vacd-vaccines-sct-sm-cm</t>
+    <t>http://fhir.ch/ig/ch-vacd/ConceptMap/ch-vacd-vaccines-sct-sm-cm</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -763,7 +763,7 @@
     <t>69189</t>
   </si>
   <si>
-    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection</t>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5</t>
   </si>
   <si>
     <t>69211</t>
@@ -775,7 +775,7 @@
     <t>69465</t>
   </si>
   <si>
-    <t>Spikevax XBB.1.5 0.10 mg/ml, Dispersion zur Injektion</t>
+    <t>Spikevax XBB.1.5 0.10 mg/ml</t>
   </si>
   <si>
     <t>69484</t>
@@ -784,7 +784,7 @@
     <t>69488</t>
   </si>
   <si>
-    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis, Injektionsdispersion</t>
+    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis</t>
   </si>
   <si>
     <t>1162643001</t>
@@ -796,7 +796,7 @@
     <t>68473</t>
   </si>
   <si>
-    <t>Nuvaxovid 0.5 ml, Injektionsdispersion</t>
+    <t>Nuvaxovid 0.5 ml</t>
   </si>
   <si>
     <t>29061000087103</t>
@@ -820,7 +820,244 @@
     <t>68752</t>
   </si>
   <si>
-    <t>Vaxneuvance, Injektionssuspension</t>
+    <t>Vaxneuvance</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>871873006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup A, C, W135 and Y antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>Mencevax ACWY</t>
+  </si>
+  <si>
+    <t>871919004</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>Varivax</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>Varilrix</t>
+  </si>
+  <si>
+    <t>1119254000</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 3, 4, 5, 6A, 6B, 7F, 9V, 14, 18C, 19A, 19F, and 23F capsular polysaccharide antigens (medicinal product)': The source code 'http://snomed.info/sct|1119254000|Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 3, 4, 5, 6A, 6B, 7F, 9V, 14, 18C, 19A, 19F, and 23F capsular polysaccharide antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>981000221107</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Danish serotype 1, 2, 3, 4, 5, 6B, 7F, 8, 9N, 9V, 10A, 11A, 12F, 14, 15B, 17F, 18C, 19A, 19F, 20, 22F, 23F, and 33F capsular polysaccharide antigens only vaccine product</t>
+  </si>
+  <si>
+    <t>1181000221105</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>Fluarix</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>Inflexal V</t>
+  </si>
+  <si>
+    <t>58271</t>
+  </si>
+  <si>
+    <t>Optaflu</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>Influvac plus</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>Mutagrip</t>
+  </si>
+  <si>
+    <t>62961</t>
+  </si>
+  <si>
+    <t>Fluarix Tetra</t>
+  </si>
+  <si>
+    <t>58317</t>
+  </si>
+  <si>
+    <t>Fluad</t>
+  </si>
+  <si>
+    <t>59267</t>
+  </si>
+  <si>
+    <t>Agrippal</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>Influvac</t>
+  </si>
+  <si>
+    <t>66427</t>
+  </si>
+  <si>
+    <t>VaxigripTetra</t>
+  </si>
+  <si>
+    <t>68087</t>
+  </si>
+  <si>
+    <t>Influvac Tetra</t>
+  </si>
+  <si>
+    <t>66161</t>
+  </si>
+  <si>
+    <t>Foclivia (Durchstechflasche)</t>
+  </si>
+  <si>
+    <t>66156</t>
+  </si>
+  <si>
+    <t>Foclivia (Fertigspritze)</t>
+  </si>
+  <si>
+    <t>1861000221106</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only live attenuated Mycobacterium bovis antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>BCG SSI</t>
+  </si>
+  <si>
+    <t>1991000221106</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human papillomavirus 16 and 18 antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1209197008</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human papillomavirus 6, 11, 16, 18, 31, 33, 45, 52 and 58 antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>1981000221108</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Neisseria meningitidis serogroup B antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>66037</t>
+  </si>
+  <si>
+    <t>Menjugate liquid</t>
+  </si>
+  <si>
+    <t>1119220001</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 2, 3, 4, 5, 6B, 7F, 8, 9N, 9V, 10A, 11A, 12F, 14, 15B, 17F, 18C, 19A, 19F, 20, 22F, 23F, and 33F capsular polysaccharide antigens (medicinal product)': The source code 'http://snomed.info/sct|1119220001|Vaccine product containing only Streptococcus pneumoniae Danish serotype 1, 2, 3, 4, 5, 6B, 7F, 8, 9N, 9V, 10A, 11A, 12F, 14, 15B, 17F, 18C, 19A, 19F, 20, 22F, 23F, and 33F capsular polysaccharide antigens (medicinal product)</t>
+  </si>
+  <si>
+    <t>840563003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Dengue virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>69403</t>
+  </si>
+  <si>
+    <t>Qdenga 0.5 ml</t>
+  </si>
+  <si>
+    <t>836421005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Ebolavirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>68358</t>
+  </si>
+  <si>
+    <t>Ervebo</t>
+  </si>
+  <si>
+    <t>836375003</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Hepatitis A virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>68003</t>
+  </si>
+  <si>
+    <t>Supemtek 0.5 ml</t>
+  </si>
+  <si>
+    <t>836495005</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Human alphaherpesvirus 3 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>836377006</t>
+  </si>
+  <si>
+    <t>Vaccine product containing Influenza virus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>51311000087100</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Human orthopneumovirus antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>69310</t>
+  </si>
+  <si>
+    <t>AREXVY</t>
+  </si>
+  <si>
+    <t>69691</t>
+  </si>
+  <si>
+    <t>Abrysvo, Pulver und Lösungsmittel zur Herstellung einer Injektionslösung, Pfizer AG</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-myvaccines-cs</t>
@@ -1136,6 +1373,9 @@
   </si>
   <si>
     <t>Orochol E</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Danish serotype 1, 2, 3, 4, 5, 6B, 7F, 8, 9N, 9V, 10A, 11A, 12F, 14, 15B, 17F, 18C, 19A, 19F, 20, 22F, 23F, and 33F capsular polysaccharide antigens only vaccine product': The source code 'http://snomed.info/sct|981000221107|Streptococcus pneumoniae Danish serotype 1, 2, 3, 4, 5, 6B, 7F, 8, 9N, 9V, 10A, 11A, 12F, 14, 15B, 17F, 18C, 19A, 19F, 20, 22F, 23F, and 33F capsular polysaccharide antigens only vaccine product</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2905,6 +3145,754 @@
         <v>268</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="E129" t="s" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="E130" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="E131" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2912,7 +3900,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2946,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>35</v>
@@ -2963,10 +3951,10 @@
         <v>39</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>271</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -2980,10 +3968,10 @@
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>273</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -2997,10 +3985,10 @@
         <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>275</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6">
@@ -3014,10 +4002,10 @@
         <v>39</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
@@ -3031,10 +4019,10 @@
         <v>39</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>279</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
@@ -3048,10 +4036,10 @@
         <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>281</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
@@ -3065,10 +4053,10 @@
         <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>283</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
@@ -3082,10 +4070,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>285</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11">
@@ -3099,10 +4087,10 @@
         <v>39</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>287</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12">
@@ -3116,10 +4104,10 @@
         <v>39</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>289</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
@@ -3133,10 +4121,10 @@
         <v>39</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>291</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
@@ -3150,10 +4138,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>293</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
@@ -3167,10 +4155,10 @@
         <v>39</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>295</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16">
@@ -3184,10 +4172,10 @@
         <v>39</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>297</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
@@ -3201,10 +4189,10 @@
         <v>39</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>299</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18">
@@ -3218,10 +4206,10 @@
         <v>39</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>301</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
@@ -3235,10 +4223,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>303</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20">
@@ -3252,10 +4240,10 @@
         <v>39</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>305</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21">
@@ -3269,10 +4257,10 @@
         <v>39</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>307</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22">
@@ -3286,10 +4274,10 @@
         <v>39</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>309</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23">
@@ -3303,10 +4291,10 @@
         <v>39</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>311</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24">
@@ -3320,10 +4308,10 @@
         <v>39</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>313</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25">
@@ -3337,10 +4325,10 @@
         <v>39</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>315</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26">
@@ -3354,10 +4342,10 @@
         <v>39</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>317</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27">
@@ -3371,10 +4359,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>319</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28">
@@ -3388,10 +4376,10 @@
         <v>39</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>321</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29">
@@ -3405,10 +4393,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>323</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30">
@@ -3422,10 +4410,10 @@
         <v>39</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>325</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31">
@@ -3439,10 +4427,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>327</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32">
@@ -3456,10 +4444,10 @@
         <v>39</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>329</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33">
@@ -3473,10 +4461,10 @@
         <v>39</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>331</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34">
@@ -3490,10 +4478,10 @@
         <v>39</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>333</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35">
@@ -3507,10 +4495,10 @@
         <v>39</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>335</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
@@ -3524,10 +4512,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>337</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37">
@@ -3541,10 +4529,10 @@
         <v>39</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>339</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38">
@@ -3558,10 +4546,10 @@
         <v>39</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>341</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39">
@@ -3575,10 +4563,10 @@
         <v>39</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>343</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40">
@@ -3592,10 +4580,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>345</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41">
@@ -3609,10 +4597,10 @@
         <v>39</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>347</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42">
@@ -3626,10 +4614,10 @@
         <v>39</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>349</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
@@ -3643,10 +4631,10 @@
         <v>39</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>351</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
@@ -3660,10 +4648,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>353</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45">
@@ -3677,10 +4665,10 @@
         <v>39</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>355</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46">
@@ -3694,10 +4682,10 @@
         <v>39</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>357</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47">
@@ -3711,10 +4699,10 @@
         <v>39</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>359</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
@@ -3728,10 +4716,10 @@
         <v>39</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>361</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49">
@@ -3745,10 +4733,10 @@
         <v>39</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>363</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
@@ -3762,10 +4750,10 @@
         <v>39</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>365</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51">
@@ -3779,10 +4767,10 @@
         <v>39</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>367</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52">
@@ -3796,10 +4784,10 @@
         <v>39</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>369</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
@@ -3813,10 +4801,10 @@
         <v>39</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>371</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
@@ -3830,10 +4818,61 @@
         <v>39</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>373</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
